--- a/References/Others/Cronograma detallado.xlsx
+++ b/References/Others/Cronograma detallado.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\OneDrive\GitHub\Tesis\Material de referencia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c0abcc15bdc5c59/GitHub/Tesis/References/Others/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="11_AD4D2F04E46CFB4ACB3E209C4D91E7B6683EDF1F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9A506D8E-9A7C-45E7-96AF-5057BC349CE0}"/>
+  <xr:revisionPtr revIDLastSave="156" documentId="11_AD4D2F04E46CFB4ACB3E209C4D91E7B6683EDF1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1017C328-47F9-4DCC-8CD7-2E368ECB0BB0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -433,15 +434,15 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -455,7 +456,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43842</v>
       </c>
@@ -469,12 +470,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43849</v>
       </c>
       <c r="B3" s="1">
-        <v>43883</v>
+        <v>43943</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -483,12 +484,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>43884</v>
+        <v>43944</v>
       </c>
       <c r="B4" s="1">
-        <v>43890</v>
+        <v>43980</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -497,12 +498,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>43891</v>
+        <v>43983</v>
       </c>
       <c r="B5" s="1">
-        <v>43904</v>
+        <v>44088</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -511,12 +512,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>43905</v>
+        <v>44089</v>
       </c>
       <c r="B6" s="1">
-        <v>43951</v>
+        <v>44134</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -525,12 +526,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>43952</v>
+        <v>44136</v>
       </c>
       <c r="B7" s="1">
-        <v>43968</v>
+        <v>44152</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -539,12 +540,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>43969</v>
+        <v>44153</v>
       </c>
       <c r="B8" s="1">
-        <v>43981</v>
+        <v>44195</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -553,12 +554,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>43982</v>
+        <v>44196</v>
       </c>
       <c r="B9" s="1">
-        <v>43995</v>
+        <v>44268</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -567,12 +568,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>43996</v>
+        <v>44269</v>
       </c>
       <c r="B10" s="1">
-        <v>44043</v>
+        <v>44316</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -581,12 +582,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>44044</v>
+        <v>44228</v>
       </c>
       <c r="B11" s="1">
-        <v>44072</v>
+        <v>44345</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -595,12 +596,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>44073</v>
+        <v>44346</v>
       </c>
       <c r="B12" s="1">
-        <v>44101</v>
+        <v>44374</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -609,12 +610,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>44102</v>
+        <v>44375</v>
       </c>
       <c r="B13" s="1">
-        <v>44120</v>
+        <v>44393</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -623,12 +624,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>44121</v>
+        <v>44394</v>
       </c>
       <c r="B14" s="1">
-        <v>44127</v>
+        <v>44492</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -637,12 +638,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>44128</v>
+        <v>44493</v>
       </c>
       <c r="B15" s="1">
-        <v>44135</v>
+        <v>44500</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -651,12 +652,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>44129</v>
+        <v>44494</v>
       </c>
       <c r="B16" s="1">
-        <v>44153</v>
+        <v>44518</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
@@ -665,12 +666,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>44136</v>
+        <v>44501</v>
       </c>
       <c r="B17" s="1">
-        <v>44156</v>
+        <v>44641</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
@@ -679,12 +680,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>44157</v>
+        <v>44642</v>
       </c>
       <c r="B18" s="1">
-        <v>44165</v>
+        <v>44681</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -693,12 +694,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44166</v>
+        <v>44682</v>
       </c>
       <c r="B19" s="1">
-        <v>44183</v>
+        <v>44699</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
@@ -707,12 +708,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>44184</v>
+        <v>44700</v>
       </c>
       <c r="B20" s="1">
-        <v>44191</v>
+        <v>44707</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
